--- a/modelagem/Resultados_2018 1ª abordagem/8. Agosto/resultados.xlsx
+++ b/modelagem/Resultados_2018 1ª abordagem/8. Agosto/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,16 +444,6 @@
           <t>Modelo Individual Teste</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo por grupos Teste</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo com a Média Teste</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,13 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.110726651125842</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.010211583017688</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.424183293428374</v>
+        <v>0.1127944559187266</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.253454290095202</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.20973510544566</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.042479125216076</v>
+        <v>0.09833095084838925</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6606386185057898</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4866859621238912</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4107928205497511</v>
+        <v>0.1361613332675866</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6011374448374528</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3700396299901367</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.430846929600227</v>
+        <v>0.06950791704586447</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3804271317383902</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3844639684200658</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3856555694297746</v>
+        <v>0.1258997406290728</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.284549773359193</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.290467782102614</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.442467033233475</v>
+        <v>0.1229931327175904</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.209700334882399</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.601184757137281</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.976963060587375</v>
+        <v>0.07322614402259443</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4211136280144827</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2907420825327837</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.466478867659081</v>
+        <v>0.1641989455770392</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7457180742216242</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8216659800909702</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.4767772623308567</v>
+        <v>0.02786873932869803</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.862592442734747</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.816170852690308</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.246390710291204</v>
+        <v>0.1849152337456847</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.268557996998959</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.231732543249905</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.765945490536662</v>
+        <v>0.04310865233316255</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.734524794952775</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.073980441100679</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.298500178870292</v>
+        <v>0.1434333772150003</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5500703611558672</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7473462165921937</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.7038283685327266</v>
+        <v>0.16079367030161</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.505649057148909</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.568288893479145</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.651819505239008</v>
+        <v>0.1463988617391435</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.767255861814214</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4.933221604035833</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4.004469637584505</v>
+        <v>0.1407410042067669</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5269347569369496</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3204284076066374</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.560124738076446</v>
+        <v>0.1303635595772934</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.35225498514106</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.374518866648992</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.479389887793153</v>
+        <v>0.1493426339542269</v>
       </c>
     </row>
     <row r="19">
@@ -734,13 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.631759735725561</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.370609604352213</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.703534949078219</v>
+        <v>0.1956830795176491</v>
       </c>
     </row>
     <row r="20">
@@ -750,13 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.726572186415721</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.355771619673767</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.240945139006894</v>
+        <v>0.1961544893693159</v>
       </c>
     </row>
     <row r="21">
@@ -766,13 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.003875300333646</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.050323979125271</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.9945589404989504</v>
+        <v>0.1626065204403845</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5818084175122217</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5045127288075656</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.720236839788014</v>
+        <v>0.02876944260336464</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.34254048031252</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.22743891925553</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1.820075061003305</v>
+        <v>0.1672201284345858</v>
       </c>
     </row>
     <row r="24">
@@ -814,13 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.815842613691272</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.966421585185991</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.603051869248909</v>
+        <v>0.1778359277669281</v>
       </c>
     </row>
     <row r="25">
@@ -830,13 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.172056937529396</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.9688422733477591</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.194515993423087</v>
+        <v>0.1538314793163048</v>
       </c>
     </row>
     <row r="26">
@@ -846,13 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.401617172347238</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4.14689014998076</v>
-      </c>
-      <c r="D26" t="n">
-        <v>4.204511219426596</v>
+        <v>0.2112559621433615</v>
       </c>
     </row>
     <row r="27">
@@ -862,13 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.625399322517155</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5304088462033598</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5369180927311349</v>
+        <v>0.1964658475742609</v>
       </c>
     </row>
     <row r="28">
@@ -878,13 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.471285791758051</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3.697993038724488</v>
-      </c>
-      <c r="D28" t="n">
-        <v>4.705165936298498</v>
+        <v>0.09005590691215923</v>
       </c>
     </row>
     <row r="29">
@@ -894,13 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.6760033377961979</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.8249384884710363</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.6646152005051759</v>
+        <v>0.0909514502884948</v>
       </c>
     </row>
     <row r="30">
@@ -910,13 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.431927023811428</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.7139770335703868</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.185058957951871</v>
+        <v>0.06883094106204569</v>
       </c>
     </row>
     <row r="31">
@@ -926,13 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3.587502476943934</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1.24280485904987</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.230891538805907</v>
+        <v>0.1567377445597933</v>
       </c>
     </row>
     <row r="32">
@@ -942,13 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.7279894701982603</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.6685432753280652</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.8723061680467645</v>
+        <v>0.09247671941372672</v>
       </c>
     </row>
     <row r="33">
@@ -958,13 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.250788355130364</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1.590255483102076</v>
-      </c>
-      <c r="D33" t="n">
-        <v>3.426820731718767</v>
+        <v>0.107932830080708</v>
       </c>
     </row>
     <row r="34">
@@ -974,13 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.7634838179192838</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.9290822623825591</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2.040520381552032</v>
+        <v>0.09065939010112839</v>
       </c>
     </row>
     <row r="35">
@@ -990,13 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.611679454185476</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3.89581075897049</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2.910744166446956</v>
+        <v>0.1240421993711836</v>
       </c>
     </row>
     <row r="36">
@@ -1006,13 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.504802544431455</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.474516308763459</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.9681077514643853</v>
+        <v>0.1354372060057549</v>
       </c>
     </row>
     <row r="37">
@@ -1022,13 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.375887971001327</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2.287089931843865</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2.504468241301937</v>
+        <v>0.1611184001891015</v>
       </c>
     </row>
     <row r="38">
@@ -1038,13 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2058275722272406</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.1943749594159104</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.4223754481791025</v>
+        <v>0.09318983350755553</v>
       </c>
     </row>
     <row r="39">
@@ -1054,13 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.598067709497592</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2.214728634312723</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2.414186531962249</v>
+        <v>0.1905512083735368</v>
       </c>
     </row>
     <row r="40">
@@ -1070,13 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.9446459382143531</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.7171809476024237</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1.099335954045763</v>
+        <v>0.1673977311176975</v>
       </c>
     </row>
     <row r="41">
@@ -1086,13 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.932253503604896</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1.009107541063948</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1.944633626887652</v>
+        <v>0.1321983970393781</v>
       </c>
     </row>
     <row r="42">
@@ -1102,13 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.905621877995109</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.59657536289712</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2.797668148347015</v>
+        <v>0.1440216892322567</v>
       </c>
     </row>
     <row r="43">
@@ -1118,13 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.79524187008361</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.715342703745992</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.6888267176847729</v>
+        <v>0.2118864714177736</v>
       </c>
     </row>
     <row r="44">
@@ -1134,13 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.128378563593836</v>
-      </c>
-      <c r="C44" t="n">
-        <v>3.636229857656789</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2.799306234611018</v>
+        <v>0.2197252539122817</v>
       </c>
     </row>
     <row r="45">
@@ -1150,13 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1.081672769370529</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.6301279118738482</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.5726048540135313</v>
+        <v>0.1501455235827555</v>
       </c>
     </row>
     <row r="46">
@@ -1166,13 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>178.627626363479</v>
-      </c>
-      <c r="C46" t="n">
-        <v>207.8112984930899</v>
-      </c>
-      <c r="D46" t="n">
-        <v>399.2737154204718</v>
+        <v>0.1868401560226435</v>
       </c>
     </row>
     <row r="47">
@@ -1182,13 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.564664314407159</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1.437467727014122</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.692299512212969</v>
+        <v>0.1822391115395335</v>
       </c>
     </row>
     <row r="48">
@@ -1198,13 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.467169104865569</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1.851154704233414</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1.848425047734653</v>
+        <v>0.07171033861379385</v>
       </c>
     </row>
     <row r="49">
@@ -1214,13 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.4043250817105379</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.3596101870563027</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.410319867136209</v>
+        <v>0.08731286329096644</v>
       </c>
     </row>
     <row r="50">
@@ -1230,13 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.067468024936156</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1.052327216715091</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1.406375740109652</v>
+        <v>0.05198642737321359</v>
       </c>
     </row>
     <row r="51">
@@ -1246,13 +942,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3.221084820999943</v>
-      </c>
-      <c r="C51" t="n">
-        <v>4.329449598936141</v>
-      </c>
-      <c r="D51" t="n">
-        <v>3.831999302979989</v>
+        <v>0.04000792525180796</v>
       </c>
     </row>
     <row r="52">
@@ -1262,13 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3.259142858141071</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2.256372481699185</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2.485225283346182</v>
+        <v>0.1379421477735714</v>
       </c>
     </row>
     <row r="53">
@@ -1278,13 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>8.3621737393625</v>
-      </c>
-      <c r="C53" t="n">
-        <v>13.48693908288368</v>
-      </c>
-      <c r="D53" t="n">
-        <v>14.44072992062085</v>
+        <v>0.0714687395959494</v>
       </c>
     </row>
     <row r="54">
@@ -1294,13 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.7980750873804993</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.8934081030206968</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9569662710337181</v>
+        <v>0.1848859247297536</v>
       </c>
     </row>
     <row r="55">
@@ -1310,13 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.486159047416876</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1.661113305504482</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.312566235909901</v>
+        <v>0.13603533279307</v>
       </c>
     </row>
   </sheetData>
